--- a/Main Task - Yimo/Rewa_Sequence_2.0s, 1.5s.xlsx
+++ b/Main Task - Yimo/Rewa_Sequence_2.0s, 1.5s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>color1</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Countdown_1.5s.jpg</t>
+  </si>
+  <si>
+    <t>[-1.0000, 1.0000, -1.0000]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -454,33 +454,33 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -491,30 +491,30 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -522,16 +522,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
